--- a/Feature-Analysis/Resize Feature/s_03_right.xlsx
+++ b/Feature-Analysis/Resize Feature/s_03_right.xlsx
@@ -1687,7 +1687,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="0">
-        <v>737791.44394675922</v>
+        <v>738157.44394675922</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -2382,7 +2382,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="0">
-        <v>737791.44453703705</v>
+        <v>738157.44453703705</v>
       </c>
       <c r="C3" s="0">
         <v>51.000005006790161</v>
@@ -3077,7 +3077,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="0">
-        <v>737791.44453703705</v>
+        <v>738157.44453703705</v>
       </c>
       <c r="C4" s="0">
         <v>51.000005006790161</v>
@@ -3772,7 +3772,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="0">
-        <v>737791.44483796298</v>
+        <v>738157.44483796298</v>
       </c>
       <c r="C5" s="0">
         <v>77.000004798173904</v>
@@ -4467,7 +4467,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="0">
-        <v>737791.44512731477</v>
+        <v>738157.44512731477</v>
       </c>
       <c r="C6" s="0">
         <v>101.99999995529652</v>
@@ -5162,7 +5162,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="0">
-        <v>737791.44541666668</v>
+        <v>738157.44541666668</v>
       </c>
       <c r="C7" s="0">
         <v>127.00000517070293</v>
@@ -5857,7 +5857,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="0">
-        <v>737791.44570601848</v>
+        <v>738157.44570601848</v>
       </c>
       <c r="C8" s="0">
         <v>152.00000032782555</v>
@@ -6552,7 +6552,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="0">
-        <v>737791.44599537039</v>
+        <v>738157.44599537039</v>
       </c>
       <c r="C9" s="0">
         <v>177.00000554323196</v>
@@ -7247,7 +7247,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="0">
-        <v>737791.44630787033</v>
+        <v>738157.44630787033</v>
       </c>
       <c r="C10" s="0">
         <v>203.99999991059303</v>
@@ -7942,7 +7942,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="0">
-        <v>737791.44659722224</v>
+        <v>738157.44659722224</v>
       </c>
       <c r="C11" s="0">
         <v>229.00000512599945</v>
@@ -8637,7 +8637,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="0">
-        <v>737791.4468634259</v>
+        <v>738157.4468634259</v>
       </c>
       <c r="C12" s="0">
         <v>252.00000107288361</v>
@@ -9332,7 +9332,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="0">
-        <v>737791.44718749996</v>
+        <v>738157.44718749996</v>
       </c>
       <c r="C13" s="0">
         <v>280.00000007450581</v>
@@ -10027,7 +10027,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="0">
-        <v>737791.4474421296</v>
+        <v>738157.4474421296</v>
       </c>
       <c r="C14" s="0">
         <v>302.00000144541264</v>
@@ -10722,7 +10722,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="0">
-        <v>737791.44781249994</v>
+        <v>738157.44781249994</v>
       </c>
       <c r="C15" s="0">
         <v>333.99999886751175</v>
@@ -11417,7 +11417,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0">
-        <v>737791.44807870372</v>
+        <v>738157.44807870372</v>
       </c>
       <c r="C16" s="0">
         <v>357.00000487267971</v>
@@ -12112,7 +12112,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0">
-        <v>737791.44832175924</v>
+        <v>738157.44832175924</v>
       </c>
       <c r="C17" s="0">
         <v>378.00000160932541</v>
@@ -12807,7 +12807,7 @@
         <v>2</v>
       </c>
       <c r="B18" s="0">
-        <v>737791.44861111115</v>
+        <v>738157.44861111115</v>
       </c>
       <c r="C18" s="0">
         <v>403.00000682473183</v>
@@ -13502,7 +13502,7 @@
         <v>2</v>
       </c>
       <c r="B19" s="0">
-        <v>737791.44892361108</v>
+        <v>738157.44892361108</v>
       </c>
       <c r="C19" s="0">
         <v>430.0000011920929</v>
@@ -14197,7 +14197,7 @@
         <v>2</v>
       </c>
       <c r="B20" s="0">
-        <v>737791.44923611113</v>
+        <v>738157.44923611113</v>
       </c>
       <c r="C20" s="0">
         <v>457.00000561773777</v>
@@ -14892,7 +14892,7 @@
         <v>2</v>
       </c>
       <c r="B21" s="0">
-        <v>737791.44947916665</v>
+        <v>738157.44947916665</v>
       </c>
       <c r="C21" s="0">
         <v>478.00000235438347</v>
@@ -15587,7 +15587,7 @@
         <v>2</v>
       </c>
       <c r="B22" s="0">
-        <v>737791.44978009257</v>
+        <v>738157.44978009257</v>
       </c>
       <c r="C22" s="0">
         <v>504.00000214576721</v>
@@ -16282,7 +16282,7 @@
         <v>2</v>
       </c>
       <c r="B23" s="0">
-        <v>737791.45005787036</v>
+        <v>738157.45005787036</v>
       </c>
       <c r="C23" s="0">
         <v>528.0000027269125</v>
@@ -16977,7 +16977,7 @@
         <v>2</v>
       </c>
       <c r="B24" s="0">
-        <v>737791.45037037041</v>
+        <v>738157.45037037041</v>
       </c>
       <c r="C24" s="0">
         <v>555.00000715255737</v>
@@ -17672,7 +17672,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="0">
-        <v>737791.45062500006</v>
+        <v>738157.45062500006</v>
       </c>
       <c r="C25" s="0">
         <v>577.0000085234642</v>
@@ -18367,7 +18367,7 @@
         <v>2</v>
       </c>
       <c r="B26" s="0">
-        <v>737791.45090277772</v>
+        <v>738157.45090277772</v>
       </c>
       <c r="C26" s="0">
         <v>600.99999904632568</v>
@@ -19062,7 +19062,7 @@
         <v>2</v>
       </c>
       <c r="B27" s="0">
-        <v>737791.45123842591</v>
+        <v>738157.45123842591</v>
       </c>
       <c r="C27" s="0">
         <v>630.00000268220901</v>
@@ -19757,7 +19757,7 @@
         <v>2</v>
       </c>
       <c r="B28" s="0">
-        <v>737791.45182870375</v>
+        <v>738157.45182870375</v>
       </c>
       <c r="C28" s="0">
         <v>681.00000768899918</v>
@@ -20452,7 +20452,7 @@
         <v>2</v>
       </c>
       <c r="B29" s="0">
-        <v>737791.45182870375</v>
+        <v>738157.45182870375</v>
       </c>
       <c r="C29" s="0">
         <v>681.00000768899918</v>
@@ -21147,7 +21147,7 @@
         <v>2</v>
       </c>
       <c r="B30" s="0">
-        <v>737791.45206018514</v>
+        <v>738157.45206018514</v>
       </c>
       <c r="C30" s="0">
         <v>700.99999979138374</v>
@@ -21842,7 +21842,7 @@
         <v>2</v>
       </c>
       <c r="B31" s="0">
-        <v>737791.45240740746</v>
+        <v>738157.45240740746</v>
       </c>
       <c r="C31" s="0">
         <v>731.00000806152821</v>
@@ -22537,7 +22537,7 @@
         <v>2</v>
       </c>
       <c r="B32" s="0">
-        <v>737791.45270833338</v>
+        <v>738157.45270833338</v>
       </c>
       <c r="C32" s="0">
         <v>757.00000785291195</v>
@@ -23232,7 +23232,7 @@
         <v>2</v>
       </c>
       <c r="B33" s="0">
-        <v>737791.45298611117</v>
+        <v>738157.45298611117</v>
       </c>
       <c r="C33" s="0">
         <v>781.00000843405724</v>
@@ -23927,7 +23927,7 @@
         <v>2</v>
       </c>
       <c r="B34" s="0">
-        <v>737791.45326388883</v>
+        <v>738157.45326388883</v>
       </c>
       <c r="C34" s="0">
         <v>804.99999895691872</v>
@@ -24622,7 +24622,7 @@
         <v>2</v>
       </c>
       <c r="B35" s="0">
-        <v>737791.45353009261</v>
+        <v>738157.45353009261</v>
       </c>
       <c r="C35" s="0">
         <v>828.00000496208668</v>
@@ -25317,7 +25317,7 @@
         <v>2</v>
       </c>
       <c r="B36" s="0">
-        <v>737791.45383101853</v>
+        <v>738157.45383101853</v>
       </c>
       <c r="C36" s="0">
         <v>854.00000475347042</v>
@@ -26012,7 +26012,7 @@
         <v>2</v>
       </c>
       <c r="B37" s="0">
-        <v>737791.45413194445</v>
+        <v>738157.45413194445</v>
       </c>
       <c r="C37" s="0">
         <v>880.00000454485416</v>
@@ -26707,7 +26707,7 @@
         <v>2</v>
       </c>
       <c r="B38" s="0">
-        <v>737791.45440972224</v>
+        <v>738157.45440972224</v>
       </c>
       <c r="C38" s="0">
         <v>904.00000512599945</v>
@@ -27402,7 +27402,7 @@
         <v>2</v>
       </c>
       <c r="B39" s="0">
-        <v>737791.45469907403</v>
+        <v>738157.45469907403</v>
       </c>
       <c r="C39" s="0">
         <v>929.00000028312206</v>
@@ -28097,7 +28097,7 @@
         <v>2</v>
       </c>
       <c r="B40" s="0">
-        <v>737791.45495370368</v>
+        <v>738157.45495370368</v>
       </c>
       <c r="C40" s="0">
         <v>951.00000165402889</v>
